--- a/Raj Chudasama/2022-12-19/ALDFWTP Guest Services/IN HOUSE GUEST 12-18-22.xlsx
+++ b/Raj Chudasama/2022-12-19/ALDFWTP Guest Services/IN HOUSE GUEST 12-18-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="108">
   <si>
     <t>Room Num</t>
   </si>
@@ -118,10 +118,10 @@
     <t>304</t>
   </si>
   <si>
-    <t xml:space="preserve"> KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QN</t>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>QN</t>
   </si>
   <si>
     <t>QNRH</t>
@@ -166,9 +166,6 @@
     <t>Hayes, Brian</t>
   </si>
   <si>
-    <t>Kwarteng-Siaw,</t>
-  </si>
-  <si>
     <t>MANGRUM,MADLIN</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">U </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Bay Tech Design </t>
@@ -749,6 +749,9 @@
       <c r="E2" t="s">
         <v>39</v>
       </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
       <c r="H2" t="s">
         <v>76</v>
       </c>
@@ -773,7 +776,7 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>69</v>
@@ -805,7 +808,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -834,7 +837,7 @@
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
@@ -863,7 +866,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
         <v>78</v>
@@ -892,7 +895,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>70</v>
@@ -924,7 +927,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -956,7 +959,7 @@
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
         <v>79</v>
@@ -985,7 +988,7 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
@@ -1014,7 +1017,7 @@
         <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -1043,7 +1046,7 @@
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
         <v>77</v>
@@ -1069,10 +1072,10 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>72</v>
@@ -1101,7 +1104,10 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
       </c>
       <c r="H14" t="s">
         <v>78</v>
@@ -1124,10 +1130,10 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
         <v>76</v>
@@ -1153,10 +1159,10 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
         <v>77</v>
@@ -1182,10 +1188,10 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>73</v>
@@ -1214,10 +1220,10 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
@@ -1243,10 +1249,10 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
         <v>80</v>
@@ -1272,10 +1278,10 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
         <v>74</v>
@@ -1304,7 +1310,10 @@
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
       </c>
       <c r="H21" t="s">
         <v>76</v>
@@ -1330,10 +1339,10 @@
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
         <v>81</v>
@@ -1359,10 +1368,10 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>75</v>
@@ -1391,10 +1400,10 @@
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
         <v>77</v>
@@ -1420,10 +1429,10 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>77</v>
